--- a/results-with-zb.xlsx
+++ b/results-with-zb.xlsx
@@ -2385,6 +2385,9 @@
       <c r="AI7">
         <v>6837.04198</v>
       </c>
+      <c r="AJ7">
+        <v>105200.56979</v>
+      </c>
       <c r="AK7">
         <v>69760.39999999999</v>
       </c>
@@ -2406,6 +2409,9 @@
       <c r="AQ7">
         <v>3092.58</v>
       </c>
+      <c r="AR7">
+        <v>141343.66</v>
+      </c>
       <c r="AS7">
         <v>-0.57458</v>
       </c>
@@ -2475,8 +2481,29 @@
       <c r="BS7">
         <v>0.00764</v>
       </c>
+      <c r="BT7">
+        <v>0.07997</v>
+      </c>
+      <c r="BU7">
+        <v>0.10662</v>
+      </c>
+      <c r="BV7">
+        <v>-0.33338</v>
+      </c>
+      <c r="BW7">
+        <v>1.55875</v>
+      </c>
+      <c r="BX7">
+        <v>0.49355</v>
+      </c>
+      <c r="BY7">
+        <v>-0.68337</v>
+      </c>
       <c r="BZ7">
         <v>-0.28347</v>
+      </c>
+      <c r="CA7">
+        <v>-0.50837</v>
       </c>
       <c r="CB7">
         <v>20.7217</v>
@@ -2591,6 +2618,9 @@
       <c r="AI8">
         <v>6837.04198</v>
       </c>
+      <c r="AJ8">
+        <v>105200.56979</v>
+      </c>
       <c r="AK8">
         <v>69760.39999999999</v>
       </c>
@@ -2612,6 +2642,9 @@
       <c r="AQ8">
         <v>3092.58</v>
       </c>
+      <c r="AR8">
+        <v>141343.66</v>
+      </c>
       <c r="AS8">
         <v>-0.57458</v>
       </c>
@@ -2681,8 +2714,29 @@
       <c r="BS8">
         <v>0.00764</v>
       </c>
+      <c r="BT8">
+        <v>0.07997</v>
+      </c>
+      <c r="BU8">
+        <v>0.10662</v>
+      </c>
+      <c r="BV8">
+        <v>-0.33338</v>
+      </c>
+      <c r="BW8">
+        <v>1.55875</v>
+      </c>
+      <c r="BX8">
+        <v>0.49355</v>
+      </c>
+      <c r="BY8">
+        <v>-0.68337</v>
+      </c>
       <c r="BZ8">
         <v>-0.28347</v>
+      </c>
+      <c r="CA8">
+        <v>-0.50837</v>
       </c>
       <c r="CB8">
         <v>20.7217</v>
@@ -5494,7 +5548,7 @@
         <v>165984.81062</v>
       </c>
       <c r="AE22">
-        <v>165984.81062</v>
+        <v>231738.33974</v>
       </c>
       <c r="AF22">
         <v>160512.52273</v>
@@ -5508,6 +5562,9 @@
       <c r="AI22">
         <v>203679.73084</v>
       </c>
+      <c r="AJ22">
+        <v>96116.1109</v>
+      </c>
       <c r="AK22">
         <v>299275.87338</v>
       </c>
@@ -5529,6 +5586,9 @@
       <c r="AQ22">
         <v>101780</v>
       </c>
+      <c r="AR22">
+        <v>109916.65</v>
+      </c>
       <c r="AS22">
         <v>-0.12341</v>
       </c>
@@ -5536,7 +5596,7 @@
         <v>0.28641</v>
       </c>
       <c r="AU22">
-        <v>0.5057</v>
+        <v>0.07847</v>
       </c>
       <c r="AV22">
         <v>1.36308</v>
@@ -5563,7 +5623,7 @@
         <v>87.94689</v>
       </c>
       <c r="BF22">
-        <v>87.94689</v>
+        <v>122.78634</v>
       </c>
       <c r="BG22">
         <v>85.04741</v>
@@ -5593,13 +5653,34 @@
         <v>0.28641</v>
       </c>
       <c r="BR22">
-        <v>0.5057</v>
+        <v>0.07847</v>
       </c>
       <c r="BS22">
         <v>1.36308</v>
       </c>
+      <c r="BT22">
+        <v>0.59881</v>
+      </c>
+      <c r="BU22">
+        <v>0.28978</v>
+      </c>
+      <c r="BV22">
+        <v>0.51606</v>
+      </c>
+      <c r="BW22">
+        <v>3.55206</v>
+      </c>
+      <c r="BX22">
+        <v>2.72275</v>
+      </c>
+      <c r="BY22">
+        <v>-0.23347</v>
+      </c>
       <c r="BZ22">
-        <v>0.19114</v>
+        <v>-0.02247</v>
+      </c>
+      <c r="CA22">
+        <v>0.1413</v>
       </c>
       <c r="CB22">
         <v>35.42626</v>
@@ -5714,6 +5795,9 @@
       <c r="AI23">
         <v>203679.73084</v>
       </c>
+      <c r="AJ23">
+        <v>96116.1109</v>
+      </c>
       <c r="AK23">
         <v>299275.87338</v>
       </c>
@@ -5735,6 +5819,9 @@
       <c r="AQ23">
         <v>101780</v>
       </c>
+      <c r="AR23">
+        <v>109916.65</v>
+      </c>
       <c r="AS23">
         <v>-0.12341</v>
       </c>
@@ -5807,8 +5894,29 @@
       <c r="BS23">
         <v>1.36308</v>
       </c>
+      <c r="BT23">
+        <v>0.59881</v>
+      </c>
+      <c r="BU23">
+        <v>0.28978</v>
+      </c>
+      <c r="BV23">
+        <v>0.51606</v>
+      </c>
+      <c r="BW23">
+        <v>3.55206</v>
+      </c>
+      <c r="BX23">
+        <v>2.72275</v>
+      </c>
+      <c r="BY23">
+        <v>-0.23347</v>
+      </c>
       <c r="BZ23">
         <v>-0.02247</v>
+      </c>
+      <c r="CA23">
+        <v>0.1413</v>
       </c>
       <c r="CB23">
         <v>35.42626</v>
@@ -6293,6 +6401,9 @@
       <c r="AI26">
         <v>489.62179</v>
       </c>
+      <c r="AJ26">
+        <v>39103.28938</v>
+      </c>
       <c r="AK26">
         <v>6643</v>
       </c>
@@ -6314,6 +6425,9 @@
       <c r="AQ26">
         <v>49</v>
       </c>
+      <c r="AR26">
+        <v>55667</v>
+      </c>
       <c r="AS26">
         <v>-0.5906</v>
       </c>
@@ -6383,8 +6497,29 @@
       <c r="BS26">
         <v>-0.2577</v>
       </c>
+      <c r="BT26">
+        <v>0.29472</v>
+      </c>
+      <c r="BU26">
+        <v>0.5652199999999999</v>
+      </c>
+      <c r="BV26">
+        <v>-0.91782</v>
+      </c>
+      <c r="BW26">
+        <v>0.41496</v>
+      </c>
+      <c r="BX26">
+        <v>0.11933</v>
+      </c>
+      <c r="BY26">
+        <v>-0.7124200000000001</v>
+      </c>
       <c r="BZ26">
         <v>-0.42415</v>
+      </c>
+      <c r="CA26">
+        <v>-0.81512</v>
       </c>
       <c r="CB26">
         <v>12.55457</v>
@@ -6499,6 +6634,9 @@
       <c r="AI27">
         <v>489.62179</v>
       </c>
+      <c r="AJ27">
+        <v>39103.28938</v>
+      </c>
       <c r="AK27">
         <v>6643</v>
       </c>
@@ -6520,6 +6658,9 @@
       <c r="AQ27">
         <v>49</v>
       </c>
+      <c r="AR27">
+        <v>55667</v>
+      </c>
       <c r="AS27">
         <v>-0.5906</v>
       </c>
@@ -6589,8 +6730,29 @@
       <c r="BS27">
         <v>-0.2577</v>
       </c>
+      <c r="BT27">
+        <v>0.29472</v>
+      </c>
+      <c r="BU27">
+        <v>0.5652199999999999</v>
+      </c>
+      <c r="BV27">
+        <v>-0.91782</v>
+      </c>
+      <c r="BW27">
+        <v>0.41496</v>
+      </c>
+      <c r="BX27">
+        <v>0.11933</v>
+      </c>
+      <c r="BY27">
+        <v>-0.7124200000000001</v>
+      </c>
       <c r="BZ27">
         <v>-0.42415</v>
+      </c>
+      <c r="CA27">
+        <v>-0.81512</v>
       </c>
       <c r="CB27">
         <v>12.55457</v>

--- a/results-with-zb.xlsx
+++ b/results-with-zb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
   <si>
     <t>var_name</t>
   </si>
@@ -97,7 +97,10 @@
     <t>扣减/上年度工资总额（最终）</t>
   </si>
   <si>
-    <t>板块微调系数</t>
+    <t>板块微调系数（递延）</t>
+  </si>
+  <si>
+    <t>板块微调系数（总包）</t>
   </si>
   <si>
     <t>上年度利润总额（万元）</t>
@@ -839,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP27"/>
+  <dimension ref="A1:CQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:94">
+    <row r="1" spans="1:95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,16 +1131,19 @@
       <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:94">
+    <row r="2" spans="1:95">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>21843.97892</v>
@@ -1209,168 +1215,171 @@
         <v>0</v>
       </c>
       <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
         <v>0.71656</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>143168.44334</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>49692.82738</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>18893.61183</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>886442.41662</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>745684.17467</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3328.99457</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>188.52961</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>23933.71212</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>39460.98</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4076.46</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1549.06</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>690945</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>663653.1899999999</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>13079</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>43.17</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>30990.56</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-0.72437</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>-0.91797</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>-0.91801</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>-0.22054</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.84121</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.9605</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>-0.14181</v>
-      </c>
-      <c r="BB2">
-        <v>576</v>
       </c>
       <c r="BC2">
         <v>576</v>
       </c>
       <c r="BD2">
+        <v>576</v>
+      </c>
+      <c r="BE2">
         <v>248.55633</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>86.27227000000001</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>32.80141</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>1538.96253</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>68.50865</v>
       </c>
-      <c r="BI2">
+      <c r="BJ2">
         <v>7.07719</v>
       </c>
-      <c r="BJ2">
+      <c r="BK2">
         <v>2.68934</v>
       </c>
-      <c r="BK2">
+      <c r="BL2">
         <v>1199.55729</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>0.5</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>0.5</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>-0.72437</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>-0.91797</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>-0.91801</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>-0.22054</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>0.027</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>0.04485</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>-0.66122</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>5.98187</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>1.27332</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>-0.78714</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>-0.47246</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>-0.72418</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>37.92357</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>8.64972</v>
       </c>
-      <c r="CD2">
+      <c r="CE2">
         <v>26.82843</v>
       </c>
     </row>
-    <row r="3" spans="1:94">
+    <row r="3" spans="1:95">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>21230.00011</v>
@@ -1442,168 +1451,171 @@
         <v>0</v>
       </c>
       <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
         <v>0.71656</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>18920.73966</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>14966.2841</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>8261.459999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>137746.32534</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>117459.15994</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-9429.282999999999</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2375.78189</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>24472.09499</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>17085.11</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>11409.35</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6288.83</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>174137.11</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>159196.45</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>862.36</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>2549.41</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>28948.27</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-0.09702</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>-0.23766</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>-0.23877</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.26419</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.85272</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.9142</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>-0.0721</v>
-      </c>
-      <c r="BB3">
-        <v>901</v>
       </c>
       <c r="BC3">
         <v>901</v>
       </c>
       <c r="BD3">
+        <v>901</v>
+      </c>
+      <c r="BE3">
         <v>20.99971</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>16.61075</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>9.16921</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>152.8816</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>18.96239</v>
       </c>
-      <c r="BI3">
+      <c r="BJ3">
         <v>12.66299</v>
       </c>
-      <c r="BJ3">
+      <c r="BK3">
         <v>6.97983</v>
       </c>
-      <c r="BK3">
+      <c r="BL3">
         <v>193.27093</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>0.5</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>0.5</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>-0.09702</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>-0.23766</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>-0.23877</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>0.26419</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>0.17766</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>0.16624</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>0.06429</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>0.77316</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>0.59019</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>-0.23664</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>0.08359</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>-0.08617</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>23.56271</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>15.7478</v>
       </c>
-      <c r="CD3">
+      <c r="CE3">
         <v>15.56648</v>
       </c>
     </row>
-    <row r="4" spans="1:94">
+    <row r="4" spans="1:95">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>3944</v>
@@ -1672,168 +1684,171 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
         <v>0.71656</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>20455.40531</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>15369.23546</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>13871</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>102246.65952</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>75260.64234000001</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>7741.53268</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3802.90723</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4662.36954</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>16667</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>12500</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>11302.5</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>102938</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>72227</v>
       </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
       <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
         <v>500</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>6343</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>-0.1852</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>-0.18669</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>-0.18517</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>0.00676</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.73607</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.70166</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.04675</v>
-      </c>
-      <c r="BB4">
-        <v>79</v>
       </c>
       <c r="BC4">
         <v>79</v>
       </c>
       <c r="BD4">
+        <v>79</v>
+      </c>
+      <c r="BE4">
         <v>258.92918</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>194.54728</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>175.58228</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>1294.26151</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>210.97468</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>158.22785</v>
       </c>
-      <c r="BJ4">
+      <c r="BK4">
         <v>143.06962</v>
       </c>
-      <c r="BK4">
+      <c r="BL4">
         <v>1303.01266</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>0.5</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>0.5</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>-0.1852</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>-0.18669</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>-0.18517</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>0.00676</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>0.0456</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>0.06162</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>-0.35133</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>4.38734</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>2.62762</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>-0.40109</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>-0.08921999999999999</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>-0.37621</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>49.92405</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>30.52212</v>
       </c>
-      <c r="CD4">
+      <c r="CE4">
         <v>30.68142</v>
       </c>
     </row>
-    <row r="5" spans="1:94">
+    <row r="5" spans="1:95">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>36772.31452</v>
@@ -1899,168 +1914,171 @@
         <v>0.14228</v>
       </c>
       <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
         <v>0.71656</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-20184.50606</v>
-      </c>
-      <c r="AD5">
-        <v>-18657.20632</v>
       </c>
       <c r="AE5">
         <v>-18657.20632</v>
       </c>
       <c r="AF5">
+        <v>-18657.20632</v>
+      </c>
+      <c r="AG5">
         <v>179107.35988</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>186298.44788</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-23.33052</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>412.45151</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>48356.02666</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-5550.69</v>
-      </c>
-      <c r="AL5">
-        <v>-5014.7</v>
       </c>
       <c r="AM5">
         <v>-5014.7</v>
       </c>
       <c r="AN5">
+        <v>-5014.7</v>
+      </c>
+      <c r="AO5">
         <v>344381.9</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>364207.59</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>14312</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>69414.83</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.725</v>
-      </c>
-      <c r="AT5">
-        <v>0.73122</v>
       </c>
       <c r="AU5">
         <v>0.73122</v>
       </c>
       <c r="AV5">
+        <v>0.73122</v>
+      </c>
+      <c r="AW5">
         <v>0.92277</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>1.04015</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>1.05757</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>-0.01675</v>
-      </c>
-      <c r="BB5">
-        <v>2525.75</v>
       </c>
       <c r="BC5">
         <v>2525.75</v>
       </c>
       <c r="BD5">
+        <v>2525.75</v>
+      </c>
+      <c r="BE5">
         <v>-7.99149</v>
-      </c>
-      <c r="BE5">
-        <v>-7.3868</v>
       </c>
       <c r="BF5">
         <v>-7.3868</v>
       </c>
       <c r="BG5">
+        <v>-7.3868</v>
+      </c>
+      <c r="BH5">
         <v>70.91254000000001</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>-2.19764</v>
-      </c>
-      <c r="BI5">
-        <v>-1.98543</v>
       </c>
       <c r="BJ5">
         <v>-1.98543</v>
       </c>
       <c r="BK5">
+        <v>-1.98543</v>
+      </c>
+      <c r="BL5">
         <v>136.34837</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>0.5</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>0.5</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>0.725</v>
-      </c>
-      <c r="BQ5">
-        <v>0.73122</v>
       </c>
       <c r="BR5">
         <v>0.73122</v>
       </c>
       <c r="BS5">
+        <v>0.73122</v>
+      </c>
+      <c r="BT5">
         <v>0.92277</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>0.26998</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>0.20156</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>0.25342</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>-0.41741</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>-0.07996</v>
       </c>
-      <c r="BY5">
+      <c r="BZ5">
         <v>0.80843</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>0.82389</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>0.53093</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>14.55897</v>
-      </c>
-      <c r="CC5">
-        <v>12.5189</v>
       </c>
       <c r="CD5">
         <v>12.5189</v>
       </c>
+      <c r="CE5">
+        <v>12.5189</v>
+      </c>
     </row>
-    <row r="6" spans="1:94">
+    <row r="6" spans="1:95">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>2821.24228</v>
@@ -2129,171 +2147,174 @@
         <v>0.06395000000000001</v>
       </c>
       <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
         <v>0.71656</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1620.83713</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1224.35928</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1199.87209</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>10036.37117</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>9098.94326</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>737.4291899999999</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>57.37174</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3776.36647</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2098</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1783</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1747</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>13223</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>11488</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>343</v>
       </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
       <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>5647</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>0.29439</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>0.45627</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0.45599</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>0.31751</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>0.9066</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>0.86879</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>0.0417</v>
-      </c>
-      <c r="BB6">
-        <v>98</v>
       </c>
       <c r="BC6">
         <v>98</v>
       </c>
       <c r="BD6">
+        <v>98</v>
+      </c>
+      <c r="BE6">
         <v>16.53915</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>12.49346</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>12.24359</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <v>102.41195</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <v>21.40816</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <v>18.19388</v>
       </c>
-      <c r="BJ6">
+      <c r="BK6">
         <v>17.82653</v>
       </c>
-      <c r="BK6">
+      <c r="BL6">
         <v>134.92857</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>0.5</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>0.5</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>0.29439</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>0.45627</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>0.45599</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>0.31751</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>0.37627</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>0.42706</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>-0.13499</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>0.42921</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>0.37152</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>-0.13439</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>0.30595</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>-0.13469</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>28.78819</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>23.39016</v>
       </c>
-      <c r="CD6">
+      <c r="CE6">
         <v>23.48114</v>
       </c>
     </row>
-    <row r="7" spans="1:94">
+    <row r="7" spans="1:95">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>86611.53584</v>
@@ -2362,171 +2383,174 @@
         <v>0.06249</v>
       </c>
       <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
         <v>0.71656</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>163980.91938</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>62595.4999</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>23568.7376</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1315579.13254</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1133801.36809</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>2355.34292</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>6837.04198</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>105200.56979</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>69760.39999999999</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>24754.11</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>15872.69</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1325625.01</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>1270772.23</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>28596.36</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>3092.58</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>141343.66</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>-0.57458</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>-0.60454</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>-0.32654</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>0.00764</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>0.86183</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>0.95862</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>-0.11231</v>
-      </c>
-      <c r="BB7">
-        <v>4179.75</v>
       </c>
       <c r="BC7">
         <v>4179.75</v>
       </c>
       <c r="BD7">
+        <v>4179.75</v>
+      </c>
+      <c r="BE7">
         <v>39.23223</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>14.9759</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>5.63879</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <v>314.75067</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <v>16.69009</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <v>5.92239</v>
       </c>
-      <c r="BJ7">
+      <c r="BK7">
         <v>3.79752</v>
       </c>
-      <c r="BK7">
+      <c r="BL7">
         <v>317.15414</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>0.5</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>0.5</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>-0.57458</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>-0.60454</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>-0.32654</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>0.00764</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>0.07997</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>0.10662</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>-0.33338</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>1.55875</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>0.49355</v>
       </c>
-      <c r="BY7">
+      <c r="BZ7">
         <v>-0.68337</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>-0.28347</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>-0.50837</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>20.7217</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>13.27689</v>
       </c>
-      <c r="CD7">
+      <c r="CE7">
         <v>15.74811</v>
       </c>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:95">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>86611.53584</v>
@@ -2597,169 +2621,169 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>163980.91938</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>62595.4999</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>23568.7376</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1315579.13254</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1133801.36809</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2355.34292</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>6837.04198</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>105200.56979</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>69760.39999999999</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>24754.11</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>15872.69</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1325625.01</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>1270772.23</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>28596.36</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>3092.58</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>141343.66</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>-0.57458</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>-0.60454</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>-0.32654</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>0.00764</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>0.86183</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>0.95862</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>-0.11231</v>
-      </c>
-      <c r="BB8">
-        <v>4179.75</v>
       </c>
       <c r="BC8">
         <v>4179.75</v>
       </c>
       <c r="BD8">
+        <v>4179.75</v>
+      </c>
+      <c r="BE8">
         <v>39.23223</v>
       </c>
-      <c r="BE8">
+      <c r="BF8">
         <v>14.9759</v>
       </c>
-      <c r="BF8">
+      <c r="BG8">
         <v>5.63879</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <v>314.75067</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <v>16.69009</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <v>5.92239</v>
       </c>
-      <c r="BJ8">
+      <c r="BK8">
         <v>3.79752</v>
       </c>
-      <c r="BK8">
+      <c r="BL8">
         <v>317.15414</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>0.5</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>0.5</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>-0.57458</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>-0.60454</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>-0.32654</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>0.00764</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>0.07997</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>0.10662</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>-0.33338</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>1.55875</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>0.49355</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>-0.68337</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>-0.28347</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>-0.50837</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>20.7217</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>12.77027</v>
       </c>
-      <c r="CD8">
+      <c r="CE8">
         <v>17.65992</v>
       </c>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:95">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <v>22234.52126</v>
@@ -2831,174 +2855,177 @@
         <v>1</v>
       </c>
       <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <v>50520.4144</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>25561.64905</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>287.13364</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>206009.02667</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>176658.72749</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>19009.96135</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2442.1352</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>32509.50645</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2555.5</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-6270.69</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-7003.69</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>181658.7</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>180226.2</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>575</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>348</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>41089</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>-0.94942</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>-1.24532</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>-25.39174</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>-0.1182</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>105</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>0.045</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>0.77665</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>0.9871</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>-0.27096</v>
-      </c>
-      <c r="BB9">
-        <v>742.13</v>
       </c>
       <c r="BC9">
         <v>742.13</v>
       </c>
       <c r="BD9">
+        <v>742.13</v>
+      </c>
+      <c r="BE9">
         <v>68.07487999999999</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>34.44363</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>0.3869</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>277.59156</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <v>3.44347</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <v>-8.449579999999999</v>
       </c>
-      <c r="BJ9">
+      <c r="BK9">
         <v>-9.437279999999999</v>
       </c>
-      <c r="BK9">
+      <c r="BL9">
         <v>244.78016</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>0.5</v>
       </c>
-      <c r="BN9">
+      <c r="BO9">
         <v>0.5</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>-0.94942</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>-1.24532</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>-25.39174</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>-0.1182</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>0.15781</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>0.22619</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>-0.43333</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>1.55402</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>0.06219</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>-0.9599800000000001</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>-13.17058</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>-0.69665</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>29.96041</v>
-      </c>
-      <c r="CC9">
-        <v>31.30863</v>
       </c>
       <c r="CD9">
         <v>31.30863</v>
       </c>
+      <c r="CE9">
+        <v>31.30863</v>
+      </c>
     </row>
-    <row r="10" spans="1:94">
+    <row r="10" spans="1:95">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10">
         <v>1738.473</v>
@@ -3067,31 +3094,31 @@
         <v>1</v>
       </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>3.3775</v>
-      </c>
-      <c r="AD10">
-        <v>2.53313</v>
       </c>
       <c r="AE10">
         <v>2.53313</v>
       </c>
       <c r="AF10">
-        <v>317.23616</v>
+        <v>2.53313</v>
       </c>
       <c r="AG10">
         <v>317.23616</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>317.23616</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
         <v>2540.08345</v>
-      </c>
-      <c r="AK10">
-        <v>13.93</v>
       </c>
       <c r="AL10">
         <v>13.93</v>
@@ -3100,67 +3127,67 @@
         <v>13.93</v>
       </c>
       <c r="AN10">
+        <v>13.93</v>
+      </c>
+      <c r="AO10">
         <v>30033.83</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>30019.9</v>
       </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
       <c r="AQ10">
         <v>0</v>
       </c>
       <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>5913.53</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>3.12435</v>
-      </c>
-      <c r="AT10">
-        <v>4.49913</v>
       </c>
       <c r="AU10">
         <v>4.49913</v>
       </c>
       <c r="AV10">
+        <v>4.49913</v>
+      </c>
+      <c r="AW10">
         <v>93.67341</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>104</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.042</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>1</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>0.99954</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>0.00046</v>
-      </c>
-      <c r="BB10">
-        <v>54.95</v>
       </c>
       <c r="BC10">
         <v>54.95</v>
       </c>
       <c r="BD10">
+        <v>54.95</v>
+      </c>
+      <c r="BE10">
         <v>0.06146</v>
-      </c>
-      <c r="BE10">
-        <v>0.0461</v>
       </c>
       <c r="BF10">
         <v>0.0461</v>
       </c>
       <c r="BG10">
+        <v>0.0461</v>
+      </c>
+      <c r="BH10">
         <v>5.77318</v>
-      </c>
-      <c r="BH10">
-        <v>0.2535</v>
       </c>
       <c r="BI10">
         <v>0.2535</v>
@@ -3169,72 +3196,75 @@
         <v>0.2535</v>
       </c>
       <c r="BK10">
+        <v>0.2535</v>
+      </c>
+      <c r="BL10">
         <v>546.56652</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>0.5</v>
       </c>
-      <c r="BN10">
+      <c r="BO10">
         <v>0.5</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>3.12435</v>
-      </c>
-      <c r="BQ10">
-        <v>4.49913</v>
       </c>
       <c r="BR10">
         <v>4.49913</v>
       </c>
       <c r="BS10">
+        <v>4.49913</v>
+      </c>
+      <c r="BT10">
         <v>93.67341</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>8.006919999999999</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>0.1969</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>0.97541</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>0.00133</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>0.00236</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>0.77156</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>3.81174</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>0.87349</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>31.63736</v>
-      </c>
-      <c r="CC10">
-        <v>32.96613</v>
       </c>
       <c r="CD10">
         <v>32.96613</v>
       </c>
+      <c r="CE10">
+        <v>32.96613</v>
+      </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:95">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>2005.91978</v>
@@ -3303,31 +3333,31 @@
         <v>1</v>
       </c>
       <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <v>-4031.55981</v>
-      </c>
-      <c r="AD11">
-        <v>-4044.18827</v>
       </c>
       <c r="AE11">
         <v>-4044.18827</v>
       </c>
       <c r="AF11">
+        <v>-4044.18827</v>
+      </c>
+      <c r="AG11">
         <v>324.51673</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4356.07654</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>2669.47693</v>
-      </c>
-      <c r="AK11">
-        <v>-22353.49</v>
       </c>
       <c r="AL11">
         <v>-22353.49</v>
@@ -3336,67 +3366,67 @@
         <v>-22353.49</v>
       </c>
       <c r="AN11">
+        <v>-22353.49</v>
+      </c>
+      <c r="AO11">
         <v>6282.89</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>28636.38</v>
       </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>2790.38</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>-4.54463</v>
-      </c>
-      <c r="AT11">
-        <v>-4.52731</v>
       </c>
       <c r="AU11">
         <v>-4.52731</v>
       </c>
       <c r="AV11">
+        <v>-4.52731</v>
+      </c>
+      <c r="AW11">
         <v>18.36076</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>105</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.045</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>13.42327</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>4.55784</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>0.66045</v>
-      </c>
-      <c r="BB11">
-        <v>51</v>
       </c>
       <c r="BC11">
         <v>51</v>
       </c>
       <c r="BD11">
+        <v>51</v>
+      </c>
+      <c r="BE11">
         <v>-79.05019</v>
-      </c>
-      <c r="BE11">
-        <v>-79.29781</v>
       </c>
       <c r="BF11">
         <v>-79.29781</v>
       </c>
       <c r="BG11">
+        <v>-79.29781</v>
+      </c>
+      <c r="BH11">
         <v>6.36307</v>
-      </c>
-      <c r="BH11">
-        <v>-438.30373</v>
       </c>
       <c r="BI11">
         <v>-438.30373</v>
@@ -3405,72 +3435,75 @@
         <v>-438.30373</v>
       </c>
       <c r="BK11">
+        <v>-438.30373</v>
+      </c>
+      <c r="BL11">
         <v>123.19392</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>0.5</v>
       </c>
-      <c r="BN11">
+      <c r="BO11">
         <v>0.5</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>-4.54463</v>
-      </c>
-      <c r="BQ11">
-        <v>-4.52731</v>
       </c>
       <c r="BR11">
         <v>-4.52731</v>
       </c>
       <c r="BS11">
+        <v>-4.52731</v>
+      </c>
+      <c r="BT11">
         <v>18.36076</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>8.22601</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>0.44412</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>0.94601</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>-1.51024</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>-8.010910000000001</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>-4.30439</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>-4.53597</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>-1.67919</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>39.33176</v>
-      </c>
-      <c r="CC11">
-        <v>41.10169</v>
       </c>
       <c r="CD11">
         <v>41.10169</v>
       </c>
+      <c r="CE11">
+        <v>41.10169</v>
+      </c>
     </row>
-    <row r="12" spans="1:94">
+    <row r="12" spans="1:95">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>6628.4</v>
@@ -3539,32 +3572,32 @@
         <v>1</v>
       </c>
       <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
         <v>20.84264</v>
-      </c>
-      <c r="AD12">
-        <v>0.1982</v>
       </c>
       <c r="AE12">
         <v>0.1982</v>
       </c>
       <c r="AF12">
+        <v>0.1982</v>
+      </c>
+      <c r="AG12">
         <v>29567.45911</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>29569.31481</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>19.25593</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>9724.85886</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
         <v>0</v>
       </c>
@@ -3572,22 +3605,22 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>32460.9</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>32460.9</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>32460.9</v>
       </c>
       <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>9738.389999999999</v>
-      </c>
-      <c r="AS12">
-        <v>-1</v>
       </c>
       <c r="AT12">
         <v>-1</v>
@@ -3596,44 +3629,44 @@
         <v>-1</v>
       </c>
       <c r="AV12">
+        <v>-1</v>
+      </c>
+      <c r="AW12">
         <v>0.09786</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>105</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>0.045</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>0.99941</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>1</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>-0.00059</v>
-      </c>
-      <c r="BB12">
-        <v>195</v>
       </c>
       <c r="BC12">
         <v>195</v>
       </c>
       <c r="BD12">
+        <v>195</v>
+      </c>
+      <c r="BE12">
         <v>0.10689</v>
-      </c>
-      <c r="BE12">
-        <v>0.00102</v>
       </c>
       <c r="BF12">
         <v>0.00102</v>
       </c>
       <c r="BG12">
+        <v>0.00102</v>
+      </c>
+      <c r="BH12">
         <v>151.628</v>
       </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
       <c r="BI12">
         <v>0</v>
       </c>
@@ -3641,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>166.46615</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>0.5</v>
       </c>
-      <c r="BN12">
+      <c r="BO12">
         <v>0.5</v>
-      </c>
-      <c r="BP12">
-        <v>-1</v>
       </c>
       <c r="BQ12">
         <v>-1</v>
@@ -3659,54 +3692,57 @@
         <v>-1</v>
       </c>
       <c r="BS12">
+        <v>-1</v>
+      </c>
+      <c r="BT12">
         <v>0.09786</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>0.3289</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>0.3</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>0.08787</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>0.00214</v>
       </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
       <c r="BY12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BZ12">
         <v>-1</v>
       </c>
       <c r="CA12">
+        <v>-1</v>
+      </c>
+      <c r="CB12">
         <v>-0.45607</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>33.99179</v>
-      </c>
-      <c r="CC12">
-        <v>35.52143</v>
       </c>
       <c r="CD12">
         <v>35.52143</v>
       </c>
+      <c r="CE12">
+        <v>35.52143</v>
+      </c>
     </row>
-    <row r="13" spans="1:94">
+    <row r="13" spans="1:95">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E13">
         <v>1727.24812</v>
@@ -3775,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3784,23 +3820,23 @@
         <v>0</v>
       </c>
       <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
         <v>3156.59217</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3952.1832</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>761.91937</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>2479.80665</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
       <c r="AL13">
         <v>0</v>
       </c>
@@ -3808,46 +3844,46 @@
         <v>0</v>
       </c>
       <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>7129.94</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>8128.94</v>
       </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
       <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
         <v>999</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>2539.25</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>1.25875</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>106</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>0.048</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>1.00859</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>1</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>0.00852</v>
-      </c>
-      <c r="BB13">
-        <v>51</v>
       </c>
       <c r="BC13">
         <v>51</v>
       </c>
       <c r="BD13">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -3856,11 +3892,11 @@
         <v>0</v>
       </c>
       <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <v>61.89396</v>
       </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
       <c r="BI13">
         <v>0</v>
       </c>
@@ -3868,60 +3904,63 @@
         <v>0</v>
       </c>
       <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
         <v>139.80275</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>0.5</v>
       </c>
-      <c r="BN13">
+      <c r="BO13">
         <v>0.5</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>1.25875</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>0.7856</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>0.35614</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>0.54666</v>
       </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
       <c r="BX13">
         <v>0</v>
       </c>
-      <c r="BZ13">
+      <c r="BY13">
         <v>0</v>
       </c>
       <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
         <v>0.54666</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>33.86761</v>
-      </c>
-      <c r="CC13">
-        <v>35.49326</v>
       </c>
       <c r="CD13">
         <v>35.49326</v>
       </c>
+      <c r="CE13">
+        <v>35.49326</v>
+      </c>
     </row>
-    <row r="14" spans="1:94">
+    <row r="14" spans="1:95">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>13292.10937</v>
@@ -3993,183 +4032,186 @@
         <v>1</v>
       </c>
       <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
         <v>334898.91613</v>
-      </c>
-      <c r="AD14">
-        <v>242267.85936</v>
       </c>
       <c r="AE14">
         <v>242267.85936</v>
       </c>
       <c r="AF14">
+        <v>242267.85936</v>
+      </c>
+      <c r="AG14">
         <v>1018805.77712</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1256509.02213</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>354185.32067</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>210516.34131</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>240419.97007</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>347018.62338</v>
-      </c>
-      <c r="AL14">
-        <v>245475.34647</v>
       </c>
       <c r="AM14">
         <v>245475.34647</v>
       </c>
       <c r="AN14">
+        <v>245475.34647</v>
+      </c>
+      <c r="AO14">
         <v>1557065.34</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>1798605.80662</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>500214.83</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>104921.58</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>306927.31</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>0.03619</v>
-      </c>
-      <c r="AT14">
-        <v>0.01324</v>
       </c>
       <c r="AU14">
         <v>0.01324</v>
       </c>
       <c r="AV14">
+        <v>0.01324</v>
+      </c>
+      <c r="AW14">
         <v>0.52832</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>107</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.051</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>0.7935</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>0.83184</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>-0.04832</v>
-      </c>
-      <c r="BB14">
-        <v>272.66333</v>
       </c>
       <c r="BC14">
         <v>272.66333</v>
       </c>
       <c r="BD14">
+        <v>272.66333</v>
+      </c>
+      <c r="BE14">
         <v>1228.25065</v>
-      </c>
-      <c r="BE14">
-        <v>888.52379</v>
       </c>
       <c r="BF14">
         <v>888.52379</v>
       </c>
       <c r="BG14">
+        <v>888.52379</v>
+      </c>
+      <c r="BH14">
         <v>3736.49718</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>1272.7</v>
-      </c>
-      <c r="BI14">
-        <v>900.28734</v>
       </c>
       <c r="BJ14">
         <v>900.28734</v>
       </c>
       <c r="BK14">
+        <v>900.28734</v>
+      </c>
+      <c r="BL14">
         <v>5710.57839</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>0.5</v>
       </c>
-      <c r="BN14">
+      <c r="BO14">
         <v>0.5</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>0.03619</v>
-      </c>
-      <c r="BQ14">
-        <v>0.01324</v>
       </c>
       <c r="BR14">
         <v>0.01324</v>
       </c>
       <c r="BS14">
+        <v>0.01324</v>
+      </c>
+      <c r="BT14">
         <v>0.52832</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>0.23598</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>0.19712</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>0.16469</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>1.39297</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>1.13062</v>
       </c>
-      <c r="BY14">
+      <c r="BZ14">
         <v>-0.18834</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>0.02471</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>-0.01183</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>48.74916</v>
-      </c>
-      <c r="CC14">
-        <v>50.78805</v>
       </c>
       <c r="CD14">
         <v>50.78805</v>
       </c>
-      <c r="CE14" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF14">
+      <c r="CE14">
+        <v>50.78805</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG14">
         <v>0.01324</v>
       </c>
-      <c r="CG14">
+      <c r="CH14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:94">
+    <row r="15" spans="1:95">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15">
         <v>11491.44461</v>
@@ -4238,183 +4280,186 @@
         <v>1</v>
       </c>
       <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
         <v>14911.20859</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>11776.67807</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>21129.72941</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>41664.29553</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>15562.0728</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>32.54717</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>13.24162</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>8879.418100000001</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>43771.7</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-1249</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>44003.9</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>65109.2</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>29818.5</v>
       </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
       <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
         <v>18575.84</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>1.93549</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>-1.10606</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>1.08256</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>0.56271</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>104</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>0.042</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>0.3731</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>0.45798</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>-0.22749</v>
-      </c>
-      <c r="BB15">
-        <v>289.41</v>
       </c>
       <c r="BC15">
         <v>289.41</v>
       </c>
       <c r="BD15">
+        <v>289.41</v>
+      </c>
+      <c r="BE15">
         <v>51.52278</v>
       </c>
-      <c r="BE15">
+      <c r="BF15">
         <v>40.69202</v>
       </c>
-      <c r="BF15">
+      <c r="BG15">
         <v>73.00967</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <v>143.96287</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <v>151.2446</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <v>-4.31568</v>
       </c>
-      <c r="BJ15">
+      <c r="BK15">
         <v>152.04692</v>
       </c>
-      <c r="BK15">
+      <c r="BL15">
         <v>224.97218</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>0.5</v>
       </c>
-      <c r="BN15">
+      <c r="BO15">
         <v>0.5</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>1.93549</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>-1.10606</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>1.08256</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>0.56271</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>0.21312</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>0.2853</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>-0.33871</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>1.6793</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>2.35638</v>
       </c>
-      <c r="BY15">
+      <c r="BZ15">
         <v>0.40319</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>1.50902</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>0.03224</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>39.70645</v>
-      </c>
-      <c r="CC15">
-        <v>41.73148</v>
       </c>
       <c r="CD15">
         <v>41.73148</v>
       </c>
-      <c r="CE15" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF15">
+      <c r="CE15">
+        <v>41.73148</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG15">
         <v>1.08256</v>
       </c>
-      <c r="CG15">
+      <c r="CH15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:94">
+    <row r="16" spans="1:95">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16">
         <v>4685.43434</v>
@@ -4483,183 +4528,186 @@
         <v>1</v>
       </c>
       <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
         <v>14894.8362</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>11307.26285</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>25378.07028</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>34856.17126</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>22680.27298</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2492.50513</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>208.44061</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5275.57829</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2263.55</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-1265.72</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2234.9</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>53641.45</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>54060.9</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>2310</v>
       </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
       <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>5101.1</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>-0.84803</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>-1.11194</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>-0.91194</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>0.53894</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>103</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>0.039</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>0.60389</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>0.96621</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>-0.59998</v>
-      </c>
-      <c r="BB16">
-        <v>133.17667</v>
       </c>
       <c r="BC16">
         <v>133.17667</v>
       </c>
       <c r="BD16">
+        <v>133.17667</v>
+      </c>
+      <c r="BE16">
         <v>111.84269</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>84.90423</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>190.55943</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <v>261.72882</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <v>16.9966</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <v>-9.50407</v>
       </c>
-      <c r="BJ16">
+      <c r="BK16">
         <v>16.78147</v>
       </c>
-      <c r="BK16">
+      <c r="BL16">
         <v>402.78415</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>0.5</v>
       </c>
-      <c r="BN16">
+      <c r="BO16">
         <v>0.5</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>-0.84803</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>-1.11194</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>-0.91194</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>0.53894</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>0.15135</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>0.0951</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>0.37169</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>2.82336</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>0.44374</v>
       </c>
-      <c r="BY16">
+      <c r="BZ16">
         <v>-0.84283</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>-0.87998</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>-0.23557</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>35.1821</v>
-      </c>
-      <c r="CC16">
-        <v>35.86815</v>
       </c>
       <c r="CD16">
         <v>35.86815</v>
       </c>
-      <c r="CE16" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF16">
+      <c r="CE16">
+        <v>35.86815</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG16">
         <v>-0.91194</v>
       </c>
-      <c r="CG16">
+      <c r="CH16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:94">
+    <row r="17" spans="1:95">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E17">
         <v>3057.5</v>
@@ -4728,180 +4776,183 @@
         <v>1</v>
       </c>
       <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
         <v>8357.242700000001</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>7399.8872</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3950.55944</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>27061.56093</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>21434.01337</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1990.00297</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>3979.78993</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>7496</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>6372</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3788.79</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>35090</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>29394</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>1800</v>
       </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
       <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>5055</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>-0.10305</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>-0.13891</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>-0.04095</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>0.29667</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>103</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>0.039</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>0.7377899999999999</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>0.7968</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>-0.07998</v>
-      </c>
-      <c r="BB17">
-        <v>98</v>
       </c>
       <c r="BC17">
         <v>98</v>
       </c>
       <c r="BD17">
+        <v>98</v>
+      </c>
+      <c r="BE17">
         <v>85.27799</v>
       </c>
-      <c r="BE17">
+      <c r="BF17">
         <v>75.50905</v>
       </c>
-      <c r="BF17">
+      <c r="BG17">
         <v>40.31183</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <v>276.13838</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <v>76.4898</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <v>65.02041</v>
       </c>
-      <c r="BJ17">
+      <c r="BK17">
         <v>38.66112</v>
       </c>
-      <c r="BK17">
+      <c r="BL17">
         <v>358.06122</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>0.5</v>
       </c>
-      <c r="BN17">
+      <c r="BO17">
         <v>0.5</v>
       </c>
-      <c r="BP17">
+      <c r="BQ17">
         <v>-0.10305</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>-0.13891</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>-0.04095</v>
       </c>
-      <c r="BS17">
+      <c r="BT17">
         <v>0.29667</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>0.14706</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>0.14406</v>
       </c>
-      <c r="BV17">
+      <c r="BW17">
         <v>0.02044</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>2.09992</v>
       </c>
-      <c r="BX17">
+      <c r="BY17">
         <v>1.48289</v>
       </c>
-      <c r="BY17">
+      <c r="BZ17">
         <v>-0.29384</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>-0.07199999999999999</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>-0.1367</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>31.19898</v>
-      </c>
-      <c r="CC17">
-        <v>32.14759</v>
       </c>
       <c r="CD17">
         <v>32.14759</v>
       </c>
-      <c r="CE17" t="s">
-        <v>155</v>
-      </c>
-      <c r="CF17">
+      <c r="CE17">
+        <v>32.14759</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG17">
         <v>-0.04095</v>
       </c>
-      <c r="CG17">
+      <c r="CH17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94">
+    <row r="18" spans="1:95">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4939,106 +4990,112 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
       <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>10586.08854</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-571.37848</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>13742.23782</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>23493.70728</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>82038.56862999999</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>58593.70552</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>55927.11484</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>59536.21</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>57717.49</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>17536.35</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>31242.64</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>107230.33</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>85092.89999999999</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>50431</v>
       </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>4.624</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>102.01446</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0.27609</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>0.32983</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>0.03</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>0.5944199999999999</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>0.643</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>-0.08172</v>
       </c>
-      <c r="BL18">
+      <c r="BM18">
         <v>1</v>
       </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
       <c r="BU18">
         <v>0</v>
       </c>
-      <c r="BW18" t="s">
-        <v>154</v>
+      <c r="BV18">
+        <v>0</v>
       </c>
       <c r="BX18" t="s">
-        <v>154</v>
-      </c>
-      <c r="BZ18">
+        <v>155</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:94">
+    <row r="19" spans="1:95">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5076,115 +5133,121 @@
       <c r="Z19">
         <v>0</v>
       </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
       <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
         <v>-334898.91613</v>
-      </c>
-      <c r="AD19">
-        <v>-242267.85936</v>
       </c>
       <c r="AE19">
         <v>-242267.85936</v>
       </c>
       <c r="AF19">
+        <v>-242267.85936</v>
+      </c>
+      <c r="AG19">
         <v>-1018805.77712</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-1256509.02213</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-354185.32067</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-210516.34131</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-240419.97007</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-347018.62338</v>
-      </c>
-      <c r="AL19">
-        <v>-245475.34647</v>
       </c>
       <c r="AM19">
         <v>-245475.34647</v>
       </c>
       <c r="AN19">
+        <v>-245475.34647</v>
+      </c>
+      <c r="AO19">
         <v>-1557065.34</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>-1798605.80662</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>-500214.83</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>-104921.58</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>-306927.31</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>-0.03619</v>
-      </c>
-      <c r="AT19">
-        <v>-0.01324</v>
       </c>
       <c r="AU19">
         <v>-0.01324</v>
       </c>
       <c r="AV19">
+        <v>-0.01324</v>
+      </c>
+      <c r="AW19">
         <v>-0.52832</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>0.03</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>0.7935</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>0.83184</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>-0.04832</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>1</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>0.23598</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>0.19712</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>0.16469</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>1.39297</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>1.13062</v>
       </c>
-      <c r="BY19">
+      <c r="BZ19">
         <v>-0.18834</v>
       </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
       <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
         <v>-0.01183</v>
       </c>
     </row>
-    <row r="20" spans="1:94">
+    <row r="20" spans="1:95">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5222,115 +5285,121 @@
       <c r="Z20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
       <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
         <v>279509.89932</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>264047.56183</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>199868.35381</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>11725.81354</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>515802.03093</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>548278.28551</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>144307.62327</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>28057.59224</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>157886.55338</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>206379.87338</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>157877.55338</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>67.17</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>225295.17662</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>341962.56</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>50002</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>19114.16</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>-0.43513</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>-0.2184</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>-0.21009</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>-0.99427</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>0.03</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>0.7323499999999999</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>0.57469</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>0.21528</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>1</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>2.39281</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>284.56394</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>-117.92481</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>9.962009999999999</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>8.26019</v>
       </c>
-      <c r="BY20">
+      <c r="BZ20">
         <v>-0.17083</v>
       </c>
-      <c r="BZ20">
-        <v>0</v>
-      </c>
       <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
         <v>-59.04782</v>
       </c>
     </row>
-    <row r="21" spans="1:94">
+    <row r="21" spans="1:95">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -5368,109 +5437,115 @@
       <c r="Z21">
         <v>0</v>
       </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
       <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>-33361.90225</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-149495.39295</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-28576.2877</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-217663.85665</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-312144.90878</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-58843.2852</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-0</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
         <v>48105.92</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-25819.15691</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>53824.33309</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-63412</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>-69155</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>54031.01</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>-0</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
       <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
         <v>2.44194</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>0.82729</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>2.88353</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>0.70867</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>0.03</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>1.12889</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>7.37182</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>-5.53018</v>
       </c>
-      <c r="BL21">
+      <c r="BM21">
         <v>1</v>
-      </c>
-      <c r="BT21">
-        <v>-0</v>
       </c>
       <c r="BU21">
         <v>-0</v>
       </c>
-      <c r="BW21" t="s">
-        <v>153</v>
+      <c r="BV21">
+        <v>-0</v>
       </c>
       <c r="BX21" t="s">
         <v>154</v>
       </c>
-      <c r="BZ21">
+      <c r="BY21" t="s">
+        <v>155</v>
+      </c>
+      <c r="CA21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:94">
+    <row r="22" spans="1:95">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22">
         <v>66861.05047</v>
@@ -5542,168 +5617,171 @@
         <v>1</v>
       </c>
       <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
         <v>341410.44784</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>165984.81062</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>231738.33974</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>160512.52273</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>560225.58813</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>571553.72246</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>203679.73084</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>96116.1109</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>299275.87338</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>213525.23647</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>249922.57647</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>379304.72</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>656116.22662</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>485771.47</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>101780</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>109916.65</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>-0.12341</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>0.28641</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.07847</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>1.36308</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>0.5986900000000001</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>0.67861</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>-0.13348</v>
-      </c>
-      <c r="BB22">
-        <v>1887.33</v>
       </c>
       <c r="BC22">
         <v>1887.33</v>
       </c>
       <c r="BD22">
+        <v>1887.33</v>
+      </c>
+      <c r="BE22">
         <v>180.896</v>
       </c>
-      <c r="BE22">
+      <c r="BF22">
         <v>87.94689</v>
       </c>
-      <c r="BF22">
+      <c r="BG22">
         <v>122.78634</v>
       </c>
-      <c r="BG22">
+      <c r="BH22">
         <v>85.04741</v>
       </c>
-      <c r="BH22">
+      <c r="BI22">
         <v>158.57104</v>
       </c>
-      <c r="BI22">
+      <c r="BJ22">
         <v>113.13614</v>
       </c>
-      <c r="BJ22">
+      <c r="BK22">
         <v>132.42124</v>
       </c>
-      <c r="BK22">
+      <c r="BL22">
         <v>200.97424</v>
       </c>
-      <c r="BL22">
+      <c r="BM22">
         <v>0.5</v>
       </c>
-      <c r="BN22">
+      <c r="BO22">
         <v>0.5</v>
       </c>
-      <c r="BP22">
+      <c r="BQ22">
         <v>-0.12341</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>0.28641</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>0.07847</v>
       </c>
-      <c r="BS22">
+      <c r="BT22">
         <v>1.36308</v>
       </c>
-      <c r="BT22">
+      <c r="BU22">
         <v>0.59881</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
         <v>0.28978</v>
       </c>
-      <c r="BV22">
+      <c r="BW22">
         <v>0.51606</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>3.55206</v>
       </c>
-      <c r="BX22">
+      <c r="BY22">
         <v>2.72275</v>
       </c>
-      <c r="BY22">
+      <c r="BZ22">
         <v>-0.23347</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>-0.02247</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>0.1413</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>35.42626</v>
-      </c>
-      <c r="CC22">
-        <v>36.94764</v>
       </c>
       <c r="CD22">
         <v>36.94764</v>
       </c>
+      <c r="CE22">
+        <v>36.94764</v>
+      </c>
     </row>
-    <row r="23" spans="1:94">
+    <row r="23" spans="1:95">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>66861.05047</v>
@@ -5774,169 +5852,169 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>341410.44784</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>165984.81062</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>231738.33974</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>160512.52273</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>560225.58813</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>571553.72246</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>203679.73084</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>96116.1109</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>299275.87338</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>213525.23647</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>249922.57647</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>379304.72</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>656116.22662</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>485771.47</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>101780</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>109916.65</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>-0.12341</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>0.28641</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>0.07847</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>1.36308</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>0.03</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>0.5986900000000001</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>0.67861</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>-0.13348</v>
-      </c>
-      <c r="BB23">
-        <v>1887.33</v>
       </c>
       <c r="BC23">
         <v>1887.33</v>
       </c>
       <c r="BD23">
+        <v>1887.33</v>
+      </c>
+      <c r="BE23">
         <v>180.896</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>87.94689</v>
       </c>
-      <c r="BF23">
+      <c r="BG23">
         <v>122.78634</v>
       </c>
-      <c r="BG23">
+      <c r="BH23">
         <v>85.04741</v>
       </c>
-      <c r="BH23">
+      <c r="BI23">
         <v>158.57104</v>
       </c>
-      <c r="BI23">
+      <c r="BJ23">
         <v>113.13614</v>
       </c>
-      <c r="BJ23">
+      <c r="BK23">
         <v>132.42124</v>
       </c>
-      <c r="BK23">
+      <c r="BL23">
         <v>200.97424</v>
       </c>
-      <c r="BL23">
+      <c r="BM23">
         <v>0.5</v>
       </c>
-      <c r="BN23">
+      <c r="BO23">
         <v>0.5</v>
       </c>
-      <c r="BP23">
+      <c r="BQ23">
         <v>-0.12341</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>0.28641</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>0.07847</v>
       </c>
-      <c r="BS23">
+      <c r="BT23">
         <v>1.36308</v>
       </c>
-      <c r="BT23">
+      <c r="BU23">
         <v>0.59881</v>
       </c>
-      <c r="BU23">
+      <c r="BV23">
         <v>0.28978</v>
       </c>
-      <c r="BV23">
+      <c r="BW23">
         <v>0.51606</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>3.55206</v>
       </c>
-      <c r="BX23">
+      <c r="BY23">
         <v>2.72275</v>
       </c>
-      <c r="BY23">
+      <c r="BZ23">
         <v>-0.23347</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>-0.02247</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>0.1413</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>35.42626</v>
       </c>
-      <c r="CC23">
+      <c r="CD23">
         <v>35.71999</v>
       </c>
-      <c r="CD23">
+      <c r="CE23">
         <v>42.65201</v>
       </c>
     </row>
-    <row r="24" spans="1:94">
+    <row r="24" spans="1:95">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E24">
         <v>27607.5</v>
@@ -6005,198 +6083,201 @@
         <v>1</v>
       </c>
       <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
         <v>16226.29492</v>
-      </c>
-      <c r="AD24">
-        <v>13687.54885</v>
       </c>
       <c r="AE24">
         <v>13687.54885</v>
       </c>
       <c r="AF24">
+        <v>13687.54885</v>
+      </c>
+      <c r="AG24">
         <v>132680.0634</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>116948.37727</v>
       </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
       <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
         <v>489.62179</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>39103.28938</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>8531</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>7196</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>3669.96</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>126396</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>118073</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>159</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>49</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>55667</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>-0.47425</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>-0.47427</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>-0.73188</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>-0.04736</v>
       </c>
-      <c r="AW24">
+      <c r="AX24">
         <v>104</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>0.042</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>0.88143</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>0.93415</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>-0.05981</v>
-      </c>
-      <c r="BB24">
-        <v>2199</v>
       </c>
       <c r="BC24">
         <v>2199</v>
       </c>
       <c r="BD24">
+        <v>2199</v>
+      </c>
+      <c r="BE24">
         <v>7.37894</v>
-      </c>
-      <c r="BE24">
-        <v>6.22444</v>
       </c>
       <c r="BF24">
         <v>6.22444</v>
       </c>
       <c r="BG24">
+        <v>6.22444</v>
+      </c>
+      <c r="BH24">
         <v>60.33655</v>
       </c>
-      <c r="BH24">
+      <c r="BI24">
         <v>3.87949</v>
       </c>
-      <c r="BI24">
+      <c r="BJ24">
         <v>3.2724</v>
       </c>
-      <c r="BJ24">
+      <c r="BK24">
         <v>1.66892</v>
       </c>
-      <c r="BK24">
+      <c r="BL24">
         <v>57.47885</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <v>0.5</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>0.5</v>
       </c>
-      <c r="BP24">
+      <c r="BQ24">
         <v>-0.47425</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>-0.47427</v>
       </c>
-      <c r="BR24">
+      <c r="BS24">
         <v>-0.73188</v>
       </c>
-      <c r="BS24">
+      <c r="BT24">
         <v>-0.04736</v>
       </c>
-      <c r="BT24">
+      <c r="BU24">
         <v>0.29472</v>
       </c>
-      <c r="BU24">
+      <c r="BV24">
         <v>0.44042</v>
       </c>
-      <c r="BV24">
+      <c r="BW24">
         <v>-0.49437</v>
       </c>
-      <c r="BW24">
+      <c r="BX24">
         <v>0.41496</v>
       </c>
-      <c r="BX24">
+      <c r="BY24">
         <v>0.15325</v>
       </c>
-      <c r="BY24">
+      <c r="BZ24">
         <v>-0.63069</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>-0.26081</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>-0.56253</v>
       </c>
-      <c r="CB24">
+      <c r="CC24">
         <v>12.55457</v>
-      </c>
-      <c r="CC24">
-        <v>12.70224</v>
       </c>
       <c r="CD24">
         <v>12.70224</v>
       </c>
-      <c r="CH24">
-        <v>100</v>
+      <c r="CE24">
+        <v>12.70224</v>
       </c>
       <c r="CI24">
         <v>100</v>
       </c>
       <c r="CJ24">
+        <v>100</v>
+      </c>
+      <c r="CK24">
         <v>37.95</v>
-      </c>
-      <c r="CK24">
-        <v>103</v>
       </c>
       <c r="CL24">
         <v>103</v>
       </c>
       <c r="CM24">
+        <v>103</v>
+      </c>
+      <c r="CN24">
         <v>40</v>
       </c>
-      <c r="CN24">
+      <c r="CO24">
         <v>0.03</v>
       </c>
-      <c r="CO24">
+      <c r="CP24">
         <v>-0.03</v>
       </c>
-      <c r="CP24">
+      <c r="CQ24">
         <v>0.05402</v>
       </c>
     </row>
-    <row r="25" spans="1:94">
+    <row r="25" spans="1:95">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -6225,18 +6306,21 @@
       <c r="Z25">
         <v>0</v>
       </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>-7051.47018</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
       <c r="AG25">
         <v>0</v>
       </c>
@@ -6250,66 +6334,69 @@
         <v>0</v>
       </c>
       <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
         <v>-1888</v>
       </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
         <v>-960.96</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-27908</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>-26020</v>
       </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
       <c r="AQ25">
         <v>0</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
-      <c r="AS25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU25">
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV25">
         <v>0.86372</v>
       </c>
-      <c r="AV25" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ25">
+      <c r="AW25" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA25">
         <v>0.93235</v>
       </c>
-      <c r="BL25">
+      <c r="BM25">
         <v>1</v>
       </c>
-      <c r="BU25">
+      <c r="BV25">
         <v>-0</v>
       </c>
-      <c r="BX25" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ25">
+      <c r="BY25" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:94">
+    <row r="26" spans="1:95">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26">
         <v>27607.5</v>
@@ -6381,168 +6468,171 @@
         <v>1</v>
       </c>
       <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
         <v>16226.29492</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>13687.54885</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>6636.07867</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>132680.0634</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>116948.37727</v>
       </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>489.62179</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>39103.28938</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6643</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>7196</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>2709</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>98488</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>92053</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>159</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>49</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>55667</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>-0.5906</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>-0.47427</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>-0.59178</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>-0.2577</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>0.88143</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>0.93466</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>-0.06039</v>
-      </c>
-      <c r="BB26">
-        <v>2199</v>
       </c>
       <c r="BC26">
         <v>2199</v>
       </c>
       <c r="BD26">
+        <v>2199</v>
+      </c>
+      <c r="BE26">
         <v>7.37894</v>
       </c>
-      <c r="BE26">
+      <c r="BF26">
         <v>6.22444</v>
       </c>
-      <c r="BF26">
+      <c r="BG26">
         <v>3.01777</v>
       </c>
-      <c r="BG26">
+      <c r="BH26">
         <v>60.33655</v>
       </c>
-      <c r="BH26">
+      <c r="BI26">
         <v>3.02092</v>
       </c>
-      <c r="BI26">
+      <c r="BJ26">
         <v>3.2724</v>
       </c>
-      <c r="BJ26">
+      <c r="BK26">
         <v>1.23192</v>
       </c>
-      <c r="BK26">
+      <c r="BL26">
         <v>44.78763</v>
       </c>
-      <c r="BL26">
+      <c r="BM26">
         <v>0.5</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>0.5</v>
       </c>
-      <c r="BP26">
+      <c r="BQ26">
         <v>-0.5906</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>-0.47427</v>
       </c>
-      <c r="BR26">
+      <c r="BS26">
         <v>-0.59178</v>
       </c>
-      <c r="BS26">
+      <c r="BT26">
         <v>-0.2577</v>
       </c>
-      <c r="BT26">
+      <c r="BU26">
         <v>0.29472</v>
       </c>
-      <c r="BU26">
+      <c r="BV26">
         <v>0.5652199999999999</v>
       </c>
-      <c r="BV26">
+      <c r="BW26">
         <v>-0.91782</v>
       </c>
-      <c r="BW26">
+      <c r="BX26">
         <v>0.41496</v>
       </c>
-      <c r="BX26">
+      <c r="BY26">
         <v>0.11933</v>
       </c>
-      <c r="BY26">
+      <c r="BZ26">
         <v>-0.7124200000000001</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>-0.42415</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>-0.81512</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>12.55457</v>
-      </c>
-      <c r="CC26">
-        <v>12.70224</v>
       </c>
       <c r="CD26">
         <v>12.70224</v>
       </c>
+      <c r="CE26">
+        <v>12.70224</v>
+      </c>
     </row>
-    <row r="27" spans="1:94">
+    <row r="27" spans="1:95">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>27607.5</v>
@@ -6613,181 +6703,181 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>16226.29492</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>13687.54885</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>6636.07867</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>132680.0634</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>116948.37727</v>
       </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>489.62179</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>39103.28938</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>6643</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>7196</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2709</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>98488</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>92053</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <v>159</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>49</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>55667</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>-0.5906</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>-0.47427</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>-0.59178</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>-0.2577</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>0.88143</v>
       </c>
-      <c r="AZ27">
+      <c r="BA27">
         <v>0.93466</v>
       </c>
-      <c r="BA27">
+      <c r="BB27">
         <v>-0.06039</v>
-      </c>
-      <c r="BB27">
-        <v>2199</v>
       </c>
       <c r="BC27">
         <v>2199</v>
       </c>
       <c r="BD27">
+        <v>2199</v>
+      </c>
+      <c r="BE27">
         <v>7.37894</v>
       </c>
-      <c r="BE27">
+      <c r="BF27">
         <v>6.22444</v>
       </c>
-      <c r="BF27">
+      <c r="BG27">
         <v>3.01777</v>
       </c>
-      <c r="BG27">
+      <c r="BH27">
         <v>60.33655</v>
       </c>
-      <c r="BH27">
+      <c r="BI27">
         <v>3.02092</v>
       </c>
-      <c r="BI27">
+      <c r="BJ27">
         <v>3.2724</v>
       </c>
-      <c r="BJ27">
+      <c r="BK27">
         <v>1.23192</v>
       </c>
-      <c r="BK27">
+      <c r="BL27">
         <v>44.78763</v>
       </c>
-      <c r="BL27">
+      <c r="BM27">
         <v>0.5</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
         <v>0.5</v>
       </c>
-      <c r="BP27">
+      <c r="BQ27">
         <v>-0.5906</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>-0.47427</v>
       </c>
-      <c r="BR27">
+      <c r="BS27">
         <v>-0.59178</v>
       </c>
-      <c r="BS27">
+      <c r="BT27">
         <v>-0.2577</v>
       </c>
-      <c r="BT27">
+      <c r="BU27">
         <v>0.29472</v>
       </c>
-      <c r="BU27">
+      <c r="BV27">
         <v>0.5652199999999999</v>
       </c>
-      <c r="BV27">
+      <c r="BW27">
         <v>-0.91782</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>0.41496</v>
       </c>
-      <c r="BX27">
+      <c r="BY27">
         <v>0.11933</v>
       </c>
-      <c r="BY27">
+      <c r="BZ27">
         <v>-0.7124200000000001</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>-0.42415</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>-0.81512</v>
       </c>
-      <c r="CB27">
+      <c r="CC27">
         <v>12.55457</v>
-      </c>
-      <c r="CC27">
-        <v>12.70224</v>
       </c>
       <c r="CD27">
         <v>12.70224</v>
       </c>
-      <c r="CH27">
-        <v>100</v>
+      <c r="CE27">
+        <v>12.70224</v>
       </c>
       <c r="CI27">
         <v>100</v>
       </c>
       <c r="CJ27">
+        <v>100</v>
+      </c>
+      <c r="CK27">
         <v>37.95</v>
-      </c>
-      <c r="CK27">
-        <v>103</v>
       </c>
       <c r="CL27">
         <v>103</v>
       </c>
       <c r="CM27">
+        <v>103</v>
+      </c>
+      <c r="CN27">
         <v>40</v>
       </c>
-      <c r="CN27">
+      <c r="CO27">
         <v>0.03</v>
       </c>
-      <c r="CO27">
+      <c r="CP27">
         <v>-0.03</v>
       </c>
-      <c r="CP27">
+      <c r="CQ27">
         <v>0.05402</v>
       </c>
     </row>
